--- a/results/trace.xlsx
+++ b/results/trace.xlsx
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -983,17 +983,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>J2</t>
+          <t>J1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>O22</t>
+          <t>O12</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1003,20 +1003,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>queued</t>
+          <t>end</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>20</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>O22</t>
-        </is>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1032,80 +1026,86 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>O12</t>
+          <t>O13</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M2-&gt;M1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>transfer</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>J1</t>
+          <t>J3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>O13</t>
+          <t>O32</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>M2-&gt;M1</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>transfer</t>
+          <t>queued</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>40</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>30</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>O32</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>J2</t>
+          <t>J3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>O22</t>
+          <t>O32</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1145,50 +1145,36 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>queued</t>
+          <t>end</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>65</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>O32</t>
-        </is>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>J2</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>O22</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
+          <t>J3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>done</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1197,42 +1183,56 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>J2</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+          <t>J1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>O13</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>queued</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>65</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+        <v>87</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>O13</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>J3</t>
+          <t>J1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>O32</t>
+          <t>O13</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1277,50 +1277,36 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>queued</t>
+          <t>end</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>70</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>O13</t>
-        </is>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>O32</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
+          <t>J1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>done</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -1329,47 +1315,61 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>J3</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+          <t>J2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>O22</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>done</t>
+          <t>queued</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>70</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+        <v>112</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>O22</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>J1</t>
+          <t>J2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>O13</t>
+          <t>O22</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1389,22 +1389,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>J1</t>
+          <t>J2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>O13</t>
+          <t>O22</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -1422,12 +1422,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>J1</t>
+          <t>J2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1438,7 +1438,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
